--- a/MusicFeatureList.xlsx
+++ b/MusicFeatureList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskye 1/Desktop/ResFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F690EAA6-6B6C-BF47-A9AD-8D17D7F68490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2722E80-A155-CD4F-8DB7-009C06F2E090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BC8994F4-6C62-AE47-9AD7-7CAA151970A5}"/>
   </bookViews>
@@ -34,21 +34,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Feature List</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Rhythm</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>Timbre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+  <si>
+    <t>Eerola et al 2009</t>
+  </si>
+  <si>
+    <t>Mirfeatures</t>
+  </si>
+  <si>
+    <t>FeatureExtraction.m (pilot)</t>
+  </si>
+  <si>
+    <t>centroid</t>
+  </si>
+  <si>
+    <t>soread</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>timbre</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>harmonic change</t>
+  </si>
+  <si>
+    <t>key clarity</t>
+  </si>
+  <si>
+    <t>majorness</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>chroma centroid</t>
+  </si>
+  <si>
+    <t>chroma deviation</t>
+  </si>
+  <si>
+    <t>salient pitch</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>pulse clarity</t>
+  </si>
+  <si>
+    <t>rhythm</t>
+  </si>
+  <si>
+    <t>event density</t>
+  </si>
+  <si>
+    <t>attack slope</t>
+  </si>
+  <si>
+    <t>attack time</t>
+  </si>
+  <si>
+    <t>articulation</t>
+  </si>
+  <si>
+    <t>dynamics</t>
+  </si>
+  <si>
+    <t>rms energy</t>
+  </si>
+  <si>
+    <t>fluctuation summary</t>
+  </si>
+  <si>
+    <t>fluctuation centroid</t>
+  </si>
+  <si>
+    <t>rms (frame)</t>
+  </si>
+  <si>
+    <t>tempo (frame)</t>
+  </si>
+  <si>
+    <t>tempo (autocorrelation)</t>
+  </si>
+  <si>
+    <t>attack time (envelope curve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attack slope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zerocross </t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>spectral centroid</t>
+  </si>
+  <si>
+    <t>spectral brightness</t>
+  </si>
+  <si>
+    <t>spectral spread</t>
+  </si>
+  <si>
+    <t>spectral skewness</t>
+  </si>
+  <si>
+    <t>spectral kurtosis</t>
+  </si>
+  <si>
+    <t>rolloff (95%)</t>
+  </si>
+  <si>
+    <t>rolloff (85%)</t>
+  </si>
+  <si>
+    <t>spectral entropy</t>
+  </si>
+  <si>
+    <t>spectral flatness</t>
+  </si>
+  <si>
+    <t>roughness (Frame)</t>
+  </si>
+  <si>
+    <t>roughness (spectrogram)</t>
+  </si>
+  <si>
+    <t>irregularity (frame)</t>
+  </si>
+  <si>
+    <t>irregularity (spectrogram)</t>
+  </si>
+  <si>
+    <t>inharmonicity (frame)</t>
+  </si>
+  <si>
+    <t>inharmonicity (spevtrogram)</t>
+  </si>
+  <si>
+    <t>mffc (frame)</t>
+  </si>
+  <si>
+    <t>delta mfcc (frame)</t>
+  </si>
+  <si>
+    <t>delta delta mfcc (frame)</t>
+  </si>
+  <si>
+    <t>lowenergy rate</t>
+  </si>
+  <si>
+    <t>low energy rate (rms curve)</t>
+  </si>
+  <si>
+    <t>spectral flux</t>
+  </si>
+  <si>
+    <t>salient pitch (frame)</t>
+  </si>
+  <si>
+    <t>chromagram (peak)</t>
+  </si>
+  <si>
+    <t>chromagram (Centroid)</t>
+  </si>
+  <si>
+    <t>key clarity (frame)</t>
+  </si>
+  <si>
+    <t>mode (frame)</t>
+  </si>
+  <si>
+    <t>hcdf (frame)</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>tonal</t>
+  </si>
+  <si>
+    <t>hcdf</t>
+  </si>
+  <si>
+    <t>chroma std</t>
+  </si>
+  <si>
+    <t>fluctuation max</t>
+  </si>
+  <si>
+    <t>novelty</t>
+  </si>
+  <si>
+    <t>structure</t>
   </si>
 </sst>
 </file>
@@ -72,7 +264,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,10 +292,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,43 +626,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE4DA8-6BF8-9F47-AB11-9C8B1058CD66}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MusicFeatureList.xlsx
+++ b/MusicFeatureList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriskye 1/Desktop/ResFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2722E80-A155-CD4F-8DB7-009C06F2E090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B1CEE-B3A7-864A-ABE2-189CF5661BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BC8994F4-6C62-AE47-9AD7-7CAA151970A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Eerola et al 2009</t>
   </si>
@@ -241,6 +241,30 @@
   </si>
   <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>FeatureExtraction.m (ResfInal)</t>
+  </si>
+  <si>
+    <t>max fluctuation</t>
+  </si>
+  <si>
+    <t>mean attack time</t>
+  </si>
+  <si>
+    <t>mean attack slope</t>
+  </si>
+  <si>
+    <t>zero crossing rate</t>
+  </si>
+  <si>
+    <t>spectral centorid</t>
+  </si>
+  <si>
+    <t>mfcc coefficients</t>
+  </si>
+  <si>
+    <t>harmonic change hcdf</t>
   </si>
 </sst>
 </file>
@@ -264,8 +288,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -292,10 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,9 +331,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,426 +650,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE4DA8-6BF8-9F47-AB11-9C8B1058CD66}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7"/>
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="7"/>
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="7"/>
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="7"/>
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="7"/>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="7"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="7"/>
       <c r="D20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="7"/>
       <c r="D21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
       <c r="D22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
       <c r="D23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
+      <c r="G23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
       <c r="D24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
       <c r="D25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
       <c r="D26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
       <c r="D27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="7"/>
       <c r="D28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="7"/>
       <c r="D29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="5"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="7"/>
       <c r="D30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="7"/>
       <c r="D31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="5" t="s">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="5"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="7"/>
       <c r="D33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="7"/>
       <c r="D34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="5" t="s">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="5"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
       <c r="D36" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="5"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
       <c r="D37" t="s">
         <v>61</v>
       </c>
+      <c r="G37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
@@ -1053,13 +1209,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
